--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Identifier status</t>
+    <t>BC Identifier Status</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,7 +334,7 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
+    <t>merged | active</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>valueCode</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
   </si>
   <si>
     <t>required</t>
@@ -1372,7 +1375,7 @@
         <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>104</v>
@@ -1402,11 +1405,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -697,42 +697,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.88671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,53 +256,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -939,7 +939,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -958,25 +958,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1027,13 +1027,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1042,12 +1042,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1070,13 +1070,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1115,19 +1115,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1139,7 +1139,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1155,10 +1155,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1232,10 +1232,10 @@
         <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1257,10 +1257,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>101</v>
@@ -1333,7 +1333,7 @@
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
@@ -1357,10 +1357,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1433,7 +1433,7 @@
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -360,7 +360,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-identifier-status-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$7</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -349,6 +352,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCode</t>
   </si>
   <si>
     <t>valueCode</t>
@@ -688,7 +694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -697,42 +703,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.65625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -844,93 +850,96 @@
       <c r="AJ1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -939,38 +948,41 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -978,199 +990,205 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
@@ -1181,98 +1199,101 @@
       <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>103</v>
@@ -1280,173 +1301,179 @@
       <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ7">
+  <autoFilter ref="A1:AK7">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -882,7 +886,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -948,7 +952,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -959,10 +963,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -973,7 +977,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -985,13 +989,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1042,13 +1046,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1057,15 +1061,15 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1088,13 +1092,13 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1133,19 +1137,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1157,7 +1161,7 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1165,10 +1169,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1176,10 +1180,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -1191,16 +1195,16 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1250,13 +1254,13 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
@@ -1265,15 +1269,15 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1281,13 +1285,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>76</v>
@@ -1296,13 +1300,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1341,53 +1345,53 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1399,13 +1403,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1432,11 +1436,11 @@
         <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>76</v>
@@ -1454,22 +1458,22 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -347,30 +236,14 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCode</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
   </si>
 </sst>
 </file>
@@ -492,10 +365,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -698,7 +571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -707,777 +580,559 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="81.65625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
-      <c r="A6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK7">
+  <autoFilter ref="A1:AK5">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1487,7 +1142,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
+  <conditionalFormatting sqref="A2:AI4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -197,10 +201,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -236,14 +236,30 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCode</t>
+  </si>
+  <si>
+    <t>valueCode</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
   </si>
 </sst>
 </file>
@@ -571,7 +587,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -580,8 +596,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.74609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -603,14 +620,13 @@
     <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="81.65625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="11.4375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
@@ -713,7 +729,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -721,10 +737,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -735,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -747,13 +763,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -804,13 +820,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -819,15 +835,15 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -850,13 +866,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -895,19 +911,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -919,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -938,10 +954,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>39</v>
@@ -1015,10 +1031,10 @@
         <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
@@ -1043,10 +1059,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>66</v>
@@ -1091,26 +1107,26 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" t="s" s="2">
+      <c r="AC5" s="2"/>
+      <c r="AD5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>65</v>
@@ -1119,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
@@ -1131,8 +1147,111 @@
         <v>64</v>
       </c>
     </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK5">
+  <autoFilter ref="A1:AK6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1142,7 +1261,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI4">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -236,30 +236,14 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCode</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-identifier-status-value-set</t>
   </si>
 </sst>
 </file>
@@ -587,7 +571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -596,9 +580,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.74609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -620,13 +603,14 @@
     <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="81.65625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="11.4375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
@@ -1107,26 +1091,26 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC5" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>65</v>
@@ -1147,111 +1131,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" hidden="true">
-      <c r="A6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK6">
+  <autoFilter ref="A1:AK5">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1261,7 +1142,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -571,7 +682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -582,557 +693,672 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="81.65625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK5">
+  <autoFilter ref="A1:AK6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1142,7 +1368,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI4">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,13 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient.identifier</t>
+  </si>
+  <si>
+    <t>element:RelatedPerson.identifier</t>
+  </si>
+  <si>
+    <t>element:Patient.link.other.identifier</t>
   </si>
   <si>
     <t>ID</t>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -673,6 +679,22 @@
       </c>
       <c r="B21" t="s" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -731,115 +753,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
@@ -851,26 +873,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -881,480 +903,480 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-identifier-status-extension.xlsx
+++ b/StructureDefinition-bc-identifier-status-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
